--- a/StimulusQuestions-MusicPlayer.xlsx
+++ b/StimulusQuestions-MusicPlayer.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23440" windowHeight="13560" tabRatio="500"/>
+    <workbookView xWindow="16840" yWindow="0" windowWidth="23440" windowHeight="13560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="91">
   <si>
     <t>20th Century</t>
   </si>
@@ -232,6 +232,66 @@
   </si>
   <si>
     <t>Why are you over there?</t>
+  </si>
+  <si>
+    <t>Fun Loving Angels</t>
+  </si>
+  <si>
+    <t>Half Life</t>
+  </si>
+  <si>
+    <t>Killing Time</t>
+  </si>
+  <si>
+    <t>instrumental</t>
+  </si>
+  <si>
+    <t>Tonopath</t>
+  </si>
+  <si>
+    <t>Do you hear a drum throughout this piece?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yes </t>
+  </si>
+  <si>
+    <t>Is the melody of this piece played on a violin?</t>
+  </si>
+  <si>
+    <t>Does this piece start with the rumble of a cymbal?</t>
+  </si>
+  <si>
+    <t>Do you only hear one instrument in this piece?</t>
+  </si>
+  <si>
+    <t>Do you find this song repetitive?</t>
+  </si>
+  <si>
+    <t>Does this piece start with drums only?</t>
+  </si>
+  <si>
+    <t>Do you hear more than one instrument in this piece?</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>slow</t>
+  </si>
+  <si>
+    <t>Would you describe this piece as fast or slow?</t>
+  </si>
+  <si>
+    <t>Is there a harmonica in this piece?</t>
+  </si>
+  <si>
+    <t>Would you say this piece is at a walking pace or a running pace?</t>
+  </si>
+  <si>
+    <t>walking</t>
+  </si>
+  <si>
+    <t>running</t>
   </si>
 </sst>
 </file>
@@ -288,8 +348,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="11">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -305,17 +367,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="11">
+  <cellStyles count="13">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -645,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F47"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1008,6 +1072,162 @@
         <v>70</v>
       </c>
     </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>71</v>
+      </c>
+      <c r="B51" t="s">
+        <v>74</v>
+      </c>
+      <c r="C51" t="s">
+        <v>76</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="C52" t="s">
+        <v>78</v>
+      </c>
+      <c r="D52" t="s">
+        <v>77</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="C53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" t="s">
+        <v>74</v>
+      </c>
+      <c r="C55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="C56" t="s">
+        <v>80</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="C57" t="s">
+        <v>81</v>
+      </c>
+      <c r="D57" t="s">
+        <v>5</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" t="s">
+        <v>5</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="C60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="C61" t="s">
+        <v>88</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" t="s">
+        <v>74</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63" t="s">
+        <v>5</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="C64" t="s">
+        <v>86</v>
+      </c>
+      <c r="D64" t="s">
+        <v>84</v>
+      </c>
+      <c r="E64" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="3:5">
+      <c r="C65" t="s">
+        <v>87</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
